--- a/data/publications/orcid/export_to_manual/SWPS_Uniwersytet_Humanistycznospołeczny_z_siedzibą_w_Warszawie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/SWPS_Uniwersytet_Humanistycznospołeczny_z_siedzibą_w_Warszawie_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5388 +436,5828 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Aleksandra Izabela Arciszewska-Leszczuk</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1762-3963</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Profiles of empathic sensitivity in students of the last year of medicine.</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2018-01</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Folia medica Cracoviensia</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Aleksandra_Izabela_Arciszewska-Leszczuk_11</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Aleksandra Izabela Arciszewska-Leszczuk</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1762-3963</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Attitudes of croatian and polish elementary school teachers towards inclusive education of children with disabilities,Stavovi hrvatskih i poljskih učitelja primarnog obrazovanja prema inkluzivnom obrazovanju djece s teškoćAMA</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Hrvatska Revija Za Rehabilitacijska Istrazivanja</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aleksandra_Izabela_Arciszewska-Leszczuk_12</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Anna Aleksandra Banik</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8674-9981</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>DOES A FORMATION OF PHYSICAL ACTIVITY PLANS DECREASE THE TIME SPENT ON SEDENTARY BEHAVIOR? PRELIMINARY FINDINGS</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anna_Aleksandra_Banik_6</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Anna Aleksandra Banik</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8674-9981</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>MY PLANS HELP YOU PLAN YOUR PHYSICAL ACTIVITY: ASSOCIATION BETWEEN INDIVIDUAL, DYADIC AND COLLABORATIVE PLANS IN ADULT DYADS</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anna_Aleksandra_Banik_7</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Anna Aleksandra Banik</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8674-9981</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>POSITIVE AND NEGATIVE SOCIAL CONTROL AND PHYSICAL ACTIVITY IN PATIENT-PARTNER DYADS</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Anna_Aleksandra_Banik_9</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Anna Aleksandra Banik</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8674-9981</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>RECIPROCAL ASSOCIATIONS BETWEEN PHYSICAL ACTIVITY AND DEPRESSION. LONGITUDINAL RESEARCH IN PATIENT-PARTNER DYADS</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Anna_Aleksandra_Banik_10</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>25</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Anna Aleksandra Banik</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8674-9981</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>RECIPROCAL RELATIONSHIPS BETWEEN SELF-EFFICACY AND SOCIAL SUPPORT EXPLAIN PHYSICAL ACTIVITY IN ADULTS - A LONGITUDINAL STUDY</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Anna_Aleksandra_Banik_11</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>83</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Maksymilian Adam Bielecki</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2881-4976</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>RELATIONSHIP OF EMOTIONAL DISTRESS AND PHYSICAL CONCERNS WITH FATIGUE SEVERITY IN SARCOIDOSIS</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Sarcoidosis Vasculitis and Diffuse Lung Diseases</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Maksymilian_Adam_Bielecki_13</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>116</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Elwira Brygoła</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6326-7760</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Personality traits and subjective well-being with regard to problem of infertility: The mediating role of implicit self-theories and life-engagement</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2018-04-07</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Polish Psychological Bulletin</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Elwira_Brygoła_2</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>120</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Ambiguous at the second sight: Mixed facial expressions trigger late electrophysiological responses linked to lower social impressions</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Cognitive, Affective, &amp; Behavioral Neuroscience</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_4</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>121</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Combined phase-rate coding by persistently active neurons as a mechanism for maintaining multiple items in working memory in humans</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Neuron</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_5</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>122</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Gry wideo a zmiany strukturalne mózgu</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Kosmos</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_6</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>123</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Lenticular nucleus volume predicts performance in real-time strategy game-cross-sectional and training approach using voxel-based morphometry</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>bioRxiv</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_7</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>124</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Lenticular nucleus volume predicts performance in real-time strategy game: cross-sectional and training approach using voxel-based morphometry</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Annals of the New York Academy of Sciences</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_8</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>125</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Three times NO: no relationship between frontal alpha asymmetry and depressive disorders in a multiverse analysis of three studies.</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>BioRxiv</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_9</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>126</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Working Memory Training for Older Participants: A Control Group Training Regimen and Initial Intellectual Functioning Assessment.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Journal of Visualized Experiments: Jove</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_10</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>127</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Wpływ marihuany na aktywnósć elektryczną mózgu</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Kosmos</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_11</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>128</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Wpływ mikrobiomu jelitowego na mózg i psychikę</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Kosmos</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_12</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>129</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Coupling between brain structures during visual and auditory working memory tasks</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>International journal of neural systems</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_13</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>130</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>P27-T Common pattern of information transfer in the brain for different modalities during a reasoning task</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Clinical Neurophysiology</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_14</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>131</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Working memory capacity as a predictor of cognitive training efficacy in the elderly population</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Frontiers in Aging Neuroscience</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_15</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>132</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Working memory load-related theta power decreases in dorsolateral prefrontal cortex predict individual differences in performance</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Journal of cognitive neuroscience</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_16</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>133</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Real-time strategy video game experience and structural connectivity--A diffusion tensor imaging study</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Human brain mapping</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_17</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>134</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Frontal EEG alpha band asymmetry as a predictor of reasoning deficiency in depressed people</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Cognition and emotion</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_18</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>135</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Insomnia in pregnancy is associated with depressive symptoms and eating at night</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Journal of Clinical Sleep Medicine</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_19</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>136</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Neural signatures of rational and heuristic choice strategies: a single trial ERP analysis</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Frontiers in human neuroscience</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_20</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>137</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Aneta Brzezicka</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1950-4180</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Skutecznósć treningów poznawczych w grupie osób starszych--przegląd badań</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Studia Psychologica: Theoria et praxis.</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Aneta_Brzezicka_21</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>139</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Jacek Marcin Buczny</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4932-196X</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Osobowość i pracoholizm</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2021-12</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Świat Problemów</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Jacek_Marcin_Buczny_2</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>140</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Jacek Marcin Buczny</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4932-196X</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Samokontrola, uzależnienie od jedzenia i nadwaga</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2021-11</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Świat Problemów</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Jacek_Marcin_Buczny_3</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>143</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Jacek Marcin Buczny</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4932-196X</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Wykluczenie społeczne i hazard: Mechanizmy psychologiczne</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2020-02</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Świat Problemów</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Jacek_Marcin_Buczny_6</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>144</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Jacek Marcin Buczny</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4932-196X</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Kwestionariusz Uzależnienia od Pracy (WCS): analiza trafności i rzetelności</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Jacek_Marcin_Buczny_7</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>145</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Jacek Marcin Buczny</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4932-196X</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>The Work Craving Scale (WCS): A Validity and Reliability Analysis</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Jacek_Marcin_Buczny_8</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>146</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Jacek Marcin Buczny</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4932-196X</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Work Craving Scale (WCS): Validity and Reliability Analysis</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Jacek_Marcin_Buczny_9</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>147</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Jacek Marcin Buczny</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4932-196X</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Zwiększanie samokontroli w terapii uzależnienia od hazardu</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Świat Problemów</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Jacek_Marcin_Buczny_10</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>162</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Katarzyna Byrka</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4220-4063</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Saying Good and Bad Things Behind Someone’s Back or to Their Face: Perceived Source Selflessness and Trust in Information Matter When the Information Is Positive.</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Social Psychological Bulletin</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Katarzyna_Byrka_12</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>165</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Katarzyna Byrka</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4220-4063</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Can regret prompt compensatory health behaviors? Findings from a clustered randomized trial with physically active adults</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Health Psychology Report</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Katarzyna_Byrka_15</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>171</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Katarzyna Byrka</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4220-4063</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Editorial: Methodological, Theoretical and Applied Advances in Behavioral Spillover</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t>Katarzyna_Byrka_21</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>196</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Agata Chudzicka-Czupała</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6517-5018</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Dbałość o pracownika jako istotny element społecznej odpowiedzialności biznesu. Wybrane obszary działania</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Etyka biznesu i zrównoważony rozwój. Interdyscyplinarne studia teoretyczno-empiryczne</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Agata_Chudzicka-Czupała_11</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>198</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Agata Chudzicka-Czupała</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6517-5018</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Occupational Burnout as a Consequence of Workaholism - An Outline of the Problem Based on Studies of Polish Women Running Their Own Business Activity</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>European Journal of Economics and Business Studies</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Agata_Chudzicka-Czupała_13</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>203</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Agata Chudzicka-Czupała</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6517-5018</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Kto bywa cyniczny w pracy? Zaangażowanie w pracę, przywiązanie do organizacji i etyka pracy a cynizm organizacyjny</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Agata_Chudzicka-Czupała_18</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>227</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Maria Cyniak-Cieciura</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6293-8729</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Five-Factor Personality (FFP) traits and PTSD symptoms: results of prospective and cross-sectional studies</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>The Review of Psychology</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Maria_Cyniak-Cieciura_2</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>239</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Marzena Aneta Cypryańska-Nezlek</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9234-5628</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Self-esteem mediates relationships between self-concept clarity and perceptions of the future</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2018-06-27</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Journal of Education, Culture and Society</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Marzena_Aneta_Cypryańska-Nezlek_10</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>304</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Karolina Dukała</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9564-3102</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Lie detection - of what?</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Problemy Kryminalistyki</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Karolina_Dukała_6</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>307</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Anna Ewa Duszyk-Bogorodzka</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5984-2339</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Successful BCI communication via high‑frequency SSVEP or visual, audio or tactile P300 in 30 tested volunteers.</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Acta neurobiologiae experimentalis</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Anna_Ewa_Duszyk-Bogorodzka_3</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>312</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Maciej Andrzej Dymkowski</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9611-3891</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>O źródłach Holokaustu w świetle badań nad destrukcyjnym posłuszeństwem</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Historyka. Studia Metodologiczne</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Maciej_Andrzej_Dymkowski_3</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>321</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Andrzej Falkowski</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5919-1110</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Positive—Negative Asymmetry in Evaluation of Natural Stimuli: Empirical Study in the Contrast Model of Similarity Extended to Open Sets</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>The American Journal of Psychology</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Andrzej_Falkowski_2</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>323</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Andrzej Falkowski</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5919-1110</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Meaningful Versus Meaningless Sounds and Words: A False Memories Perspective</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2021-04-12</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Experimental Psychology</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Andrzej_Falkowski_4</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>331</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Andrzej Falkowski</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5919-1110</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t xml:space="preserve">Kształtowanie wizerunku komunikacji miejskiej. Znaczenie poznawczych teorii podobieństwa w budowaniu wartości marki </t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Marketing i Rynek</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Andrzej_Falkowski_12</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>332</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Andrzej Falkowski</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5919-1110</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Siła cech negatywnych w kształtowaniu się podobieństwa: implikacje dla budowania wizerunku marki miasta</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Psychologia Społeczna</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Andrzej_Falkowski_13</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>368</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Małgorzata Gamian-Wilk</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6095-5269</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t xml:space="preserve">Różnice pomiędzy oceną zachowania dziecka wychowującego się w placówce opiekuńczo-wychowawczej jako instytucji pieczy zastępczej a dziecka wychowywanego w rodzinie. </t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Teraźniejszość – Człowiek - Edukacja, 21, 4(84), 99-112.</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Małgorzata_Gamian-Wilk_9</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>372</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Małgorzata Gamian-Wilk</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6095-5269</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Bullying as a social influence arena: Review of social influence tactics occurring in bullying process.</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Forum Oświatowe, 29, 1(57), 79-96.</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Małgorzata_Gamian-Wilk_13</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>374</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Małgorzata Gamian-Wilk</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6095-5269</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Kształtowanie się uległości we wczesnym dzieciństwie: rola bezpiecznego stylu przywiązania</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Psychologia Wychowawcza, 53, 67(11), 151-163.</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Małgorzata_Gamian-Wilk_15</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>375</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Małgorzata Gamian-Wilk</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6095-5269</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t xml:space="preserve">O wybranych skutkach wykluczenia społecznego. </t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Teraźniejszość – Człowiek – Edukacja, 20, 4(80), 45-58.</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Małgorzata_Gamian-Wilk_16</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>376</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Małgorzata Gamian-Wilk</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6095-5269</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t xml:space="preserve">Personality traits as predictors or outcomes of being exposed to bullying at workplace. </t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Personality and Individual Differences, 115, 43-49.</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Małgorzata_Gamian-Wilk_17</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>379</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Małgorzata Gamian-Wilk</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6095-5269</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Workplace bullying as an arena of social influence: a review of tactics in the bullying process</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Forum Oświatowe</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Małgorzata_Gamian-Wilk_20</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>395</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Józef Gierowski</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7497-1876</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>The Role of Early Maladaptive Schemas in Shaping the Boundaries of Sex Offenders</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>International Journal of Sexual Health</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Józef_Gierowski_5</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>396</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Józef Gierowski</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7497-1876</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Warning behaviours and risk factors preceding acts of individual terrorism</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Problems of Forensic Sciences / Z Zagadnień Nauk Sądowych</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Józef_Gierowski_6</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>397</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Józef Gierowski</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7497-1876</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>AFTER YEARS OF TRAUMA- PSYCHOLOGICAL CONSEQUENCES OF POLITICAL REPRESSION IN POLAND IN THE YEARS 1944-1956</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Józef_Gierowski_7</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>400</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Józef Gierowski</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7497-1876</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Formulation in forensic psychiatry: Problems, challenges and the usefulness of psycho-criminological concepts,Konceptualizacja przypadku w psychiatrii sądowej – Problemy, wyzwania, użyteczność koncepcji psychokryminologicznych</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Z Zagadnien Nauk Sadowych</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Józef_Gierowski_10</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>402</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Józef Gierowski</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7497-1876</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Profiles of empathic sensitivity in students of the last year of medicine</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Folia medica Cracoviensia</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Józef_Gierowski_12</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>406</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Józef Gierowski</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7497-1876</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Professor Adam Szymusik (1931–2000) – The Creator Of Modern Forensic Psychiatry in Poland</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Problems of Forensic Sciences / Z Zagadnień Nauk Sądowych</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Józef_Gierowski_16</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>418</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Agnieszka Monika Golec</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7631-9486</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>Collective narcissism in the 2016 Presidential election</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t>Agnieszka_Monika_Golec_11</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>424</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Damian Wojciech Grabowski</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8589-4135</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>A chain mediation model on COVID‑19 symptoms and mental health outcomes in Americans, Asians and Europeans</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>2021-03-19</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Scientific Reports</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Damian_Wojciech_Grabowski_3</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>426</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Damian Wojciech Grabowski</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8589-4135</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>The Association Between Physical and Mental Health and Face Mask Use During the COVID-19 Pandemic: A Comparison of Two Countries With Different Views and Practices</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>2020-09-09</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Frontiers in Psychiatry</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Damian_Wojciech_Grabowski_5</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>440</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Katarzyna Growiec</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4448-2561</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Social mindfulness and prosociality vary across the globe</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>2021-08-23</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>Proceedings of the National Academy of Sciences of the United States of  America</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Katarzyna_Growiec_1</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" t="n">
+        <v>446</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Katarzyna Anna Grunt-Mejer</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5679-5322</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>Commentary to the "Resolution on appropriate affirmative responses to sexual orientation distress and change efforts" by the American Psychological Association,Komentarz do stanowiska Amerykańskiego Towarzystwa Psychologicznego pt. "Właściwe afirmatywne postȩpowanie wobec osób odczuwajacych stres z powodu swojej orientacji seksualnej oraz prób jej zmiany"</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>Seksuologia Polska</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Katarzyna_Anna_Grunt-Mejer_3</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" t="n">
+        <v>447</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Katarzyna Anna Grunt-Mejer</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5679-5322</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>Resolution on appropriate affirmative responses to sexual orientation distress and change efforts by the American Psychological Association,Właściwe afirmatywne postȩpowanie wobec osób odczuwajacych stres z powodu swojej orientacji seksualnej oraz prób jej zmiany: Tłumaczenie rezolucji Amerykańskiego Towarzystwa Psychologicznego</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>Seksuologia Polska</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Katarzyna_Anna_Grunt-Mejer_4</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" t="n">
+        <v>448</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Katarzyna Anna Grunt-Mejer</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5679-5322</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>Worldview and confirmation bias: The problem of social sciences, Swiatopogląd a Błąd Konfirmacji-Problem Nauk Społecznych</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>Filozofia Nauki</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Katarzyna_Anna_Grunt-Mejer_5</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" t="n">
+        <v>451</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Anna Maria Hełka</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3242-2553</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>Predictors of the Propensity to Incur Loans for Varying Purposes in the Future</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>2021-02-27</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>EUROPEAN RESEARCH STUDIES JOURNAL</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Anna_Maria_Hełka_1</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" t="n">
+        <v>467</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Marta Jackowska</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2930-0483</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>The association of depressive and sleep symptoms for predicting incident disease onset after 6 year follow-up: findings from the English Longitudinal Study of Ageing</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>2018-05-29</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>Psychological Medicine</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Marta_Jackowska_5</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" t="n">
+        <v>470</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Marta Jackowska</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2930-0483</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>Sleep problems, short sleep and a combination of both increase the risk of depressive symptoms in older people: a 6-year follow-up investigation from the English Longitudinal Study of Ageing</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>2017-03-07</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Sleep Medicine</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Marta_Jackowska_8</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" t="n">
+        <v>486</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Joanna Kabzińska</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2135-8699</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>Zasady ewaluacji skuteczności monitoringu wizyjnego</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>Przegląd Policyjny</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Joanna_Kabzińska_1</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" t="n">
+        <v>487</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Joanna Kabzińska</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2135-8699</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>An evaluation of witness testimony in criminal proceedings: preliminary results of empirical research</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Problems of Forensic Sciences / Z Zagadnień Nauk Sądowych</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Joanna_Kabzińska_2</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" t="n">
+        <v>488</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Joanna Kabzińska</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2135-8699</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>Psychological diagnosis of demoralisation in juvenile forensic assessments: fields, models and new directions</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>Problems of Forensic Sciences / Z Zagadnień Nauk Sądowych</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Joanna_Kabzińska_3</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" t="n">
+        <v>492</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>Romana Stefania Kadzikowska-Wrzosek</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0658-9656</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>Wolna wola w świetle badań współczesnej psychologii nad procesami samoregulacji oraz samokontroli,</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>Psychologia Społeczna</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Romana_Stefania_Kadzikowska-Wrzosek_3</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" t="n">
+        <v>498</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Bartosz Paweł Karcz</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0409-4230</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t xml:space="preserve">Prevalence of select mental disorders among graduation class adolescents: data from a screening study. </t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>2018-10-02</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Family Medicine &amp; Primary Care Review</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Bartosz_Paweł_Karcz_1</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" t="n">
+        <v>499</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Bartosz Paweł Karcz</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0409-4230</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>Elderly people’s preferences regarding reminiscence material</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Educational Gerontology</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Bartosz_Paweł_Karcz_2</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" t="n">
+        <v>507</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Monika Kornacka</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2737-9236</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>Sprawozdanie z 48. Kongresu europejskiego stowarzyszenia terapii behawioralnych i poznawczych (EABCT) w sofii (Bułgaria)</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Monika_Kornacka_5</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" t="n">
+        <v>526</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Agata Kozłowska</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4813-5233</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>Psychologiczne interwencje internetowe – pojęcia, zastosowania i wyzwania</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>Nauka</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Agata_Kozłowska_4</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" t="n">
+        <v>547</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Izabela Krejtz</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9827-8371</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>UNCONTROLLABILITY IN THE CLASSROOM The intellectual helplessness perspective</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Coping with Lack of Control in a Social World</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Izabela_Krejtz_21</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" t="n">
+        <v>549</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Aleksandra Karolina Kroemeke</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8707-742X</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>Well-being trajectories following retirement: a compensatory role of self-enhancement values in disadvantaged women</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>Journal of Happiness Studies</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Aleksandra_Karolina_Kroemeke_2</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" t="n">
+        <v>555</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Aleksandra Karolina Kroemeke</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8707-742X</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>A growth mixture modelling study of learning trajectories in an extended computerised working memory training programme developed for young children diagnosed with attention-deficit/hyperactivity disorder</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>2019-02-02</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>Frontiers in Education</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Aleksandra_Karolina_Kroemeke_8</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" t="n">
+        <v>564</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Aleksandra Karolina Kroemeke</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8707-742X</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>Actor and partner effects of coping on adjustment in couples undergoing assisted reproduction treatment</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>2017-12</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Health Psychology Report</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Aleksandra_Karolina_Kroemeke_17</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" t="n">
+        <v>586</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Zuzanna Kwissa-Gajewska</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4033-1870</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>The effect of protective buffering on daily stress and relationship quality in dyads following hematopoietic stem cell transplantation: Results from daily process methodology</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>Bone Marrow Transplantation</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Zuzanna_Kwissa-Gajewska_2</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" t="n">
+        <v>587</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Zuzanna Kwissa-Gajewska</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4033-1870</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>Everyday life after HSCT: fluctuation of patients and their partners mood, support exchange and relationship satisfaction</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>Bone Marrow Transplantation</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Zuzanna_Kwissa-Gajewska_3</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" t="n">
+        <v>600</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Aleksandra Łuszczyńska</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4704-9544</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>DOES A FORMATION OF PHYSICAL ACTIVITY PLANS DECREASE THE TIME SPENT ON SEDENTARY BEHAVIOR? PRELIMINARY FINDINGS</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Aleksandra_Łuszczyńska_7</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" t="n">
+        <v>601</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>Aleksandra Łuszczyńska</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4704-9544</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>FACETS OF SOCIAL SUPPORT AND SEDENTARY BEHAVIORS: PROSPECTIVE FINDINGS IN MOTHER-CHILD DYADS</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Aleksandra_Łuszczyńska_8</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" t="n">
+        <v>603</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Aleksandra Łuszczyńska</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4704-9544</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>MY PLANS HELP YOU PLAN YOUR PHYSICAL ACTIVITY: ASSOCIATION BETWEEN INDIVIDUAL, DYADIC AND COLLABORATIVE PLANS IN ADULT DYADS</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Aleksandra_Łuszczyńska_10</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" t="n">
+        <v>604</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>Aleksandra Łuszczyńska</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4704-9544</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>PARENTAL AND CHILD EXERCISE AVERSION ASSOCIATED WITH CHILD PHYSICAL ACTIVITY</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Aleksandra_Łuszczyńska_11</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" t="n">
+        <v>605</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>Aleksandra Łuszczyńska</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4704-9544</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>POSITIVE AND NEGATIVE SOCIAL CONTROL AND PHYSICAL ACTIVITY IN PATIENT-PARTNER DYADS</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Aleksandra_Łuszczyńska_12</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" t="n">
+        <v>606</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>Aleksandra Łuszczyńska</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4704-9544</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>RECIPROCAL ASSOCIATIONS BETWEEN PHYSICAL ACTIVITY AND DEPRESSION. LONGITUDINAL RESEARCH IN PATIENT-PARTNER DYADS</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Aleksandra_Łuszczyńska_13</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" t="n">
+        <v>607</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>Aleksandra Łuszczyńska</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4704-9544</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>RECIPROCAL RELATIONSHIPS BETWEEN SELF-EFFICACY AND SOCIAL SUPPORT EXPLAIN PHYSICAL ACTIVITY IN ADULTS - A LONGITUDINAL STUDY</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Aleksandra_Łuszczyńska_14</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" t="n">
+        <v>628</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>Konrad Piotr Maj</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>http://orcid.org/0000-0002-9605-4251</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>UCZELNIA XXI WIEKU.  SIEĆ SPOŁECZNA STUDENTÓW,  ABSOLWENTÓW I KADRY NAUKOWO-DYDAKTYCZNEJ W INNOWACYJNYM MODELU KSZTAŁCENIA IDEAGORA</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Studia edukacyjne</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Konrad_Piotr_Maj_4</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" t="n">
+        <v>630</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Magdalena Maria Marszał-Wiśniewska</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1423-3660</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>Wpływ nastroju i perspektyw postrzegania czasu na rozwiązywanie zadań dywergencyjnych</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Magdalena_Maria_Marszał-Wiśniewska_2</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" t="n">
+        <v>633</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>Magdalena Maria Marszał-Wiśniewska</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1423-3660</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>What happens during the process of goal-oriented self-regulation? Systematic measure of the objective and self-reported effects of the self-regulation enhancing intervention</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>Ceskoslovenska Psychologie</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Magdalena_Maria_Marszał-Wiśniewska_5</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" t="n">
+        <v>634</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>Magdalena Maria Marszał-Wiśniewska</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1423-3660</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>What happens during the process of goal-oriented self-regulation? Systematic measure of the objective and self-reported effects of the self-regulation enhancing intervention</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>Ceskoslovenska Psychologie</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Magdalena_Maria_Marszał-Wiśniewska_6</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" t="n">
+        <v>635</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>Tomasz Franciszek Maruszewski</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2341-3927</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>Elderly people’s preferences regarding reminiscence material</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>2017-11</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>EducationaGerontology</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Tomasz_Franciszek_Maruszewski_1</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" t="n">
+        <v>639</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>Jarosław Maciej Michałowski</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000-0002-5811-740X </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>The mental health continuum-short form: The structure and application for cross-cultural studies-A38 nation study</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>2018-06</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Journal of clinical psychology</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Jarosław_Maciej_Michałowski_1</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" t="n">
+        <v>697</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>Czesław Nosal</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">http://orcid.org/0000-0002-1693-2692 </t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t>Innovator Behavior Questionnaire as an Expert Selecting for  Technical Innovation Risk Assessment</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>2021-03-20</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>European Research Studies Journal</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Czesław_Nosal_1</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" t="n">
+        <v>772</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>Agnieszka Ewa Popiel</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000-0001-9990-4971 </t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
           <t>Cechy Pięcioczynnikowego Modelu Osobowości (PMO) a objawy PTSD: wyniki badań prospektywnych i poprzecznych</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Agnieszka_Ewa_Popiel_3</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" t="n">
+        <v>773</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>Agnieszka Ewa Popiel</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000-0001-9990-4971 </t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
           <t>Komentarz do artykułu "Zespół stresu pourazowego". Wskazówki dla lekarzy</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>Lekarz Rodzinny</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Agnieszka_Ewa_Popiel_4</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" t="n">
+        <v>774</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>Agnieszka Ewa Popiel</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000-0001-9990-4971 </t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>Komentarz do artykułu "Zespół stresu pourazowego". Wskazówki dla lekarzy</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Lekarz Rodzinny</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Agnieszka_Ewa_Popiel_5</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" t="n">
+        <v>777</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>Agnieszka Ewa Popiel</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000-0001-9990-4971 </t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>OPRACOWANIE I WALIDACJA EKSPERYMENTALNEJ POLSKIEJ WERSJI SKRÓCONEJ KWESTIONARIUSZA SCHEMATÓW YOUNGA (YSQ-ES-PL)1 DO BADANIA WCZESNYCH SCHEMATÓW DEZADAPTACYJNYCH</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>Roczniki Psychologiczne</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Agnieszka_Ewa_Popiel_8</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" t="n">
+        <v>780</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>Agnieszka Ewa Popiel</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000-0001-9990-4971 </t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
           <t>Zaburzenia osobowości: krótkie wprowadzenie historyczne</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>Roczniki Psychologiczne</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Agnieszka_Ewa_Popiel_11</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" t="n">
+        <v>806</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>Marta Anna Roczniewska</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000-0003-0815-1455 </t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t>Are managers also ‘ crafting leaders ’? The link between organizational rank , autonomy , and job crafting</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>Polish Psychological Bulletin</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Marta_Anna_Roczniewska_12</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" t="n">
+        <v>809</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>Danuta Rode</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000-0001-5729-8168 </t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D107" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
           <t>Psychological Diagnosis of Demoralization in Juvenile Forensic Assessments: Fields, Models and New Directions.</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>Problems of Forensic Sciences</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Danuta_Rode_3</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" t="n">
+        <v>811</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>Danuta Rode</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000-0001-5729-8168 </t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>Psychological diagnosis of demoralisation in juvenile forensic assessments: fields, models and new directions</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Z Zagadnień Nauk Sądowych</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Danuta_Rode_5</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" t="n">
+        <v>814</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>Danuta Rode</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000-0001-5729-8168 </t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D109" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
           <t>Characteristics of children experiencing direct and indirect domestic violence and abuse</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Problems of Forensic Sciences / Z Zagadnień Nauk Sądowych</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>Danuta_Rode_8</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" t="n">
+        <v>819</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>Anna Maria Rogala</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000-0002-6780-2265 </t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D110" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
           <t>Psychologiczne interwencje internetowe – pojęcia, zastosowania i wyzwania</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>Nauka</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Anna_Maria_Rogala_5</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" t="n">
+        <v>831</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Katarzyna Maria Sanna</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1903-1830</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>Development of the cancer-patient social support questionnaire: reliability and validity</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>2019-03-22</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>Katarzyna_Maria_Sanna_1</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" t="n">
+        <v>872</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>Maria Sidoruk-Grymuza</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1919-3426</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>Siła cech negatywnych w kształtowaniu się podobieństwa: Implikacje dla budowania wizerunku marki miasta.</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>SOCIAL PSYCHOLOGICAL BULLETIN (PSYCHOLOGIA SPOLECZNA)</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>Maria_Sidoruk-Grymuza_3</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" t="n">
+        <v>873</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>Anna Halina Siwy-Hudowska</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3026-853X</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D113" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
           <t>Affective temperaments in non-depressed patients with alcohol and opiate addictions. Is the “dark side” associated with current depressive symptoms?</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>Heroin Addiction and Related Clinical Problems</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Anna_Halina_Siwy-Hudowska_1</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" t="n">
+        <v>874</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>Anna Halina Siwy-Hudowska</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3026-853X</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D114" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
           <t>What do students know about the use of opioids in the treatment of chronic cancer-related pain,Wiedza studentów na temat stosowania opioidów w leczeniu przewlekego bólu wystêpujcego u chorych na nowotwory</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>Medycyna Paliatywna w Praktyce</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>Anna_Halina_Siwy-Hudowska_2</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" t="n">
+        <v>876</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>Anna Halina Siwy-Hudowska</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3026-853X</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D115" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
           <t>OCENA JAKÓSCI ŻYCIA W KONTEḰSCIE CECH OSOBOWÓSCI U MŁODYCH MĘŻCZYZN O RÓŻNYM STOPNIU ZAANGAŻOWANIA W UPRAWIANIE ĆWICZEŃ FIZYCZNYCH</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>Studia Psychologiczne</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Anna_Halina_Siwy-Hudowska_4</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" t="n">
+        <v>877</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>Krystyna Janina Skarżyńska</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1327-6850</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D116" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
           <t xml:space="preserve">Parent - child relationships and adults worldviews </t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>2020-12</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>Journal of Counsellogy</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Krystyna_Janina_Skarżyńska_1</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" t="n">
+        <v>878</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Krystyna Janina Skarżyńska</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1327-6850</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D117" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
           <t>Trudne czasy i co potem? Czy potrzeba bepieczeństwa zniszczy demokrację?</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>2020-08</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>Res Humana</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Krystyna_Janina_Skarżyńska_2</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" t="n">
+        <v>879</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>Krystyna Janina Skarżyńska</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1327-6850</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D118" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
           <t xml:space="preserve">Freedom, freedom...But what kind of freedom? Intrinsic an extrinsic sense of freedom as predictors of preferences for political communit and attitydes toward democracy  </t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>Social Psychological Bulletin</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>Krystyna_Janina_Skarżyńska_3</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" t="n">
+        <v>880</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>Krystyna Janina Skarżyńska</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1327-6850</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D119" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
           <t>Psychologiczne i społeczne asekty poparcia dla autorytarnej polityki</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>Przegląd Socjologiczny</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>Krystyna_Janina_Skarżyńska_4</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" t="n">
+        <v>881</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>Krystyna Janina Skarżyńska</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1327-6850</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D120" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
           <t xml:space="preserve">Akceptacja agresji w życiu politycznym. Rola dostępności poznawczej proagresywnych przekonań o świecie oraz specyfiki obserwowanego aktu agresji  </t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>Psychologia Społeczna</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>Krystyna_Janina_Skarżyńska_5</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" t="n">
+        <v>893</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>Agata Anna Sobków</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5357-744X</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
           <t>Numerate decision makers don?t use more effortful strategies unless it pays: A process tracing investigation of skilled and adaptive strategy selection in risky decision making</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>Judgment and Decision Making</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>Agata_Anna_Sobków_10</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" t="n">
+        <v>899</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>Joanna Sokołowska-Pohorille</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5239-1435</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D122" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
           <t>Editorial: Coronavirus Disease (COVID-19): Psychological Reactions to the Pandemic</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>Frontiers in Psychology</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>Joanna_Sokołowska-Pohorille_1</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" t="n">
+        <v>903</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>Joanna Sokołowska-Pohorille</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5239-1435</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D123" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
           <t>OCENA WAŻNOŚCI INFORMACJI PRZY DIAGNOZIE TRENDÓW GIEŁDOWYCH PRZEZ INWESTORÓW INDYWIDUALNYCH</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>2017-12</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>Decyzje</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>Joanna_Sokołowska-Pohorille_5</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" t="n">
+        <v>906</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>Wiesława Barbara Sotwin</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6893-1635</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D124" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
           <t>The influence of willpower and implementation of intention on subjective evaluation of the level of achieving personal goals</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>Medical Studies</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>Wiesława_Barbara_Sotwin_1</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" t="n">
+        <v>907</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>Joanna Marta Sweklej</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6069-3051</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>Rola procesów asocjacyjnych i formułowania sądów w nabywaniu i ekspresji postaw</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>Psychologia Społeczna</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>Joanna_Marta_Sweklej_1</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" t="n">
+        <v>911</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>Marta Szastok</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7674-7651</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D126" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
           <t xml:space="preserve">Men and Women od the STEM track. Similar or Diverse? </t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr">
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
         <is>
           <t>Marta_Szastok_4</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" t="n">
+        <v>913</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>Marta Szastok</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7674-7651</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D127" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
           <t>Women Can’t Have It All: Benevolent Sexism PredictsAttitudes Toward Working (vs. Stay-at-Home) Mothers</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>2019-05-15</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>Social Psychological Bulletin</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>Marta_Szastok_6</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" t="n">
+        <v>945</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>Jakub Traczyk</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9145-1998</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D128" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
           <t>Numerate decision makers don’t use more effortful strategies unless it pays: A process tracing investigation of skilled and adaptive strategy selection in risky decision making</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>Judgment and Decision Making</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>Jakub_Traczyk_9</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>Agata Magdalena Wytykowska-Kaczorek</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1541-8699</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D129" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
           <t>Relationship between morningness-eveningness and testosterone levels assessed from hair</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>Personality and Individual Differences</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>Agata_Magdalena_Wytykowska-Kaczorek_2</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>Agata Magdalena Wytykowska-Kaczorek</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1541-8699</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D130" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
           <t>Poziom lęku w reakcji na indukcję pozytywnego afektu u osób wysoko- i niskolękowych</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>Agata_Magdalena_Wytykowska-Kaczorek_7</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>Anna Maria Zalewska</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7285-4748</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D131" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
           <t>Aktywność obywatelska młodzieży i jej relacje z cechami osobowości – perspektywa międzynarodowa</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>Anna_Maria_Zalewska_1</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>Anna Maria Zalewska</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7285-4748</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D132" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>Citizenship Behaviour Questionnaire-30 —general version: Psychometric properties and theoretical and criterion validity among young adults10</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>Anna_Maria_Zalewska_2</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>Anna Maria Zalewska</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7285-4748</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D133" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
           <t>Family relations and citizenship activity among adolescents —the moderating role of hope for success4</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>Anna_Maria_Zalewska_3</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>Anna Maria Zalewska</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7285-4748</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D134" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
           <t>Kwestionariusz Zachowań Obywatelskich-30 – wersja ogólna: właściwości psychometryczne, trafność teoretyczna i kryterialna wśród młodych dorosłych9</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>Anna_Maria_Zalewska_4</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>Anna Maria Zalewska</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7285-4748</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D135" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
           <t>Relacje rodzinne a aktywność obywatelska wśród adolescentów – pośrednicząca rola nadziei na sukces</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Anna_Maria_Zalewska_5</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>Anna Maria Zalewska</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7285-4748</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D136" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
           <t>Relationship between young people’s citizenship behaviors and personality traits –An international perspective</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>Anna_Maria_Zalewska_6</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>Karolina Zarychta-Zajączkowska</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2072-0841</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D137" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
           <t>Maternal practices and perceptions of child body mass status explain child energy expenditure behaviors and body mass</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>2020-01</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>Journal of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>Karolina_Zarychta-Zajączkowska_5</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>Karolina Zarychta-Zajączkowska</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2072-0841</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D138" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
           <t>Depression in elite athletes: Findings from a systematic review</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>Karolina_Zarychta-Zajączkowska_11</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>Mateusz Piotr Zatorski</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0043-0815</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D139" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
           <t>Niewspółpracujący biorca – rola psychologa w opiece potransplantacyjnej</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>Chirurgia po dyplomie, 5(6), s.31-36</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>Mateusz_Piotr_Zatorski_1</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>Mateusz Piotr Zatorski</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0043-0815</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D140" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
           <t>Frailty syndrome in hemodialyzed patients: a pilot study</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>Nefrologia i Dializoterapia Polska</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>Mateusz_Piotr_Zatorski_2</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>Mateusz Piotr Zatorski</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0043-0815</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D141" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
           <t xml:space="preserve">Psychological effects of organ transplantation: Symptoms and predictors of change. </t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>The Review of Psychology Vol. 61 (2)</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>Mateusz_Piotr_Zatorski_4</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>Mateusz Piotr Zatorski</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0043-0815</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D142" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
           <t>Pogłębienie relacji dawca – biorca jako rezultat żywego dawstwa</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>Forum Nefrologiczne, tom 10 nr 3, 1-6</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>Mateusz_Piotr_Zatorski_6</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>Elżbieta Zdankiewicz-Ścigała</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8275-2585</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D143" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
           <t>The role of alexithymia and dissociation in relation between parental attitudes and attachment styles in adulthood</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>Personality and Individual Differences</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>Elżbieta_Zdankiewicz-Ścigała_4</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>Elżbieta Zdankiewicz-Ścigała</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8275-2585</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D144" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
           <t>Early Childhood Trauma, Alexithymia and Dissociation with the Internal Dialogue Activity in Adulthood</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>European Journal of Psychotraumatology</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>Elżbieta_Zdankiewicz-Ścigała_5</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>Elżbieta Zdankiewicz-Ścigała</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8275-2585</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D145" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>Parental Attitudes and Attachment Styles in Adulthood: Mediatory Role of Dissociation and Alexithymia</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>European Journal of Psychotraumatology</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>Elżbieta_Zdankiewicz-Ścigała_6</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>Elżbieta Zdankiewicz-Ścigała</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8275-2585</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D146" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
           <t>Parental Bonding, Temperament and Tendency to Impulsive Aggression: Mediating Role of Alexithymia and Temperament</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>European Journal of Psychotraumatology</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>Elżbieta_Zdankiewicz-Ścigała_8</t>
         </is>
